--- a/relazione/risultatiNumerici.xlsx
+++ b/relazione/risultatiNumerici.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="-4820" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Table3[#All]</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -24,12 +27,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+  <si>
+    <t>1kb</t>
+  </si>
+  <si>
+    <t>500kb</t>
+  </si>
+  <si>
+    <t>5mb</t>
+  </si>
+  <si>
+    <t>50mb</t>
+  </si>
+  <si>
+    <t>T. Parallelo</t>
+  </si>
+  <si>
+    <t>T Sequenziale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>T. Sequenziale</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -37,16 +65,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -54,18 +114,208 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -73,6 +323,1889 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.118885768874479"/>
+          <c:y val="0.0264227642276423"/>
+          <c:w val="0.85124903504709"/>
+          <c:h val="0.823787209525639"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1kb</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500kb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5mb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50mb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$1:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.545454545454546</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.653445512820513</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.215991889376412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.235734757686294</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="-2134822944"/>
+        <c:axId val="-2134819536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2134822944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t>Dimenzioni dei file</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2134819536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2134819536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2134822944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="63500" cap="sq" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+              <a:headEnd type="none"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.9660113425325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.742710778159443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.490088536572811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.170267285756884</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2105191776"/>
+        <c:axId val="-2105183440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2105191776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t>Numero di Thread</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2105183440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2105183440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2105191776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>203199</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="G10:I14" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="G10:I14">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" name=" " dataDxfId="3"/>
+    <tableColumn id="2" name="T. Parallelo"/>
+    <tableColumn id="3" name="T. Sequenziale"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="L10:N14" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="L10:N14"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name=" " dataDxfId="0"/>
+    <tableColumn id="2" name="T. Parallelo"/>
+    <tableColumn id="3" name="T Sequenziale"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -338,15 +2471,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1.8699999999999999E-4</v>
       </c>
@@ -364,8 +2502,14 @@
         <f>B3/D1</f>
         <v>0.96601134253249987</v>
       </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0.54545454545454553</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2.496E-3</v>
       </c>
@@ -383,8 +2527,14 @@
         <f>B3/D2</f>
         <v>1.7427107781594433</v>
       </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1.6534455128205128</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.30084</v>
       </c>
@@ -402,8 +2552,14 @@
         <f>B3/D3</f>
         <v>2.4900885365728112</v>
       </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>3.2159918893764128</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1.07464</v>
       </c>
@@ -421,8 +2577,153 @@
         <f>B3/D4</f>
         <v>3.1702672857568839</v>
       </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3.2357347576862949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.96601134253249987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1.7427107781594433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>2.4900885365728112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>3.1702672857568839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1.8699999999999999E-4</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1.02E-4</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1.8699999999999999E-4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1.02E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2.496E-3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4.1269999999999996E-3</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2.496E-3</v>
+      </c>
+      <c r="N12" s="2">
+        <v>4.1269999999999996E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.30084</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.967499</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.30084</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.967499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1.1746399999999999</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3.4772500000000002</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="9">
+        <v>1.07464</v>
+      </c>
+      <c r="N14" s="2">
+        <v>3.4772500000000002</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>